--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cck-Cckar.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cck-Cckar.xlsx
@@ -531,22 +531,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1295</v>
+        <v>0.5218183333333334</v>
       </c>
       <c r="H2">
-        <v>0.3885</v>
+        <v>1.565455</v>
       </c>
       <c r="I2">
-        <v>0.03378978388280364</v>
+        <v>0.11537035205514</v>
       </c>
       <c r="J2">
-        <v>0.03378978388280364</v>
+        <v>0.11537035205514</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,22 +561,22 @@
         <v>1.392827</v>
       </c>
       <c r="O2">
-        <v>0.5486456655941866</v>
+        <v>0.5211722106246275</v>
       </c>
       <c r="P2">
-        <v>0.5486456655941866</v>
+        <v>0.5211722106246275</v>
       </c>
       <c r="Q2">
-        <v>0.06012369883333334</v>
+        <v>0.2422675545872223</v>
       </c>
       <c r="R2">
-        <v>0.5411132895</v>
+        <v>2.180407991285</v>
       </c>
       <c r="S2">
-        <v>0.01853861846866452</v>
+        <v>0.06012782142111885</v>
       </c>
       <c r="T2">
-        <v>0.01853861846866452</v>
+        <v>0.06012782142111885</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1295</v>
+        <v>0.5218183333333334</v>
       </c>
       <c r="H3">
-        <v>0.3885</v>
+        <v>1.565455</v>
       </c>
       <c r="I3">
-        <v>0.03378978388280364</v>
+        <v>0.11537035205514</v>
       </c>
       <c r="J3">
-        <v>0.03378978388280364</v>
+        <v>0.11537035205514</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3819456666666667</v>
+        <v>0.426554</v>
       </c>
       <c r="N3">
-        <v>1.145837</v>
+        <v>1.279662</v>
       </c>
       <c r="O3">
-        <v>0.4513543344058135</v>
+        <v>0.4788277893753726</v>
       </c>
       <c r="P3">
-        <v>0.4513543344058135</v>
+        <v>0.4788277893753726</v>
       </c>
       <c r="Q3">
-        <v>0.04946196383333334</v>
+        <v>0.2225836973566667</v>
       </c>
       <c r="R3">
-        <v>0.4451576745</v>
+        <v>2.00325327621</v>
       </c>
       <c r="S3">
-        <v>0.01525116541413912</v>
+        <v>0.05524253063402117</v>
       </c>
       <c r="T3">
-        <v>0.01525116541413912</v>
+        <v>0.05524253063402117</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>3.900673</v>
       </c>
       <c r="I4">
-        <v>0.3392609978571102</v>
+        <v>0.2874704269761693</v>
       </c>
       <c r="J4">
-        <v>0.3392609978571102</v>
+        <v>0.2874704269761693</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,22 +685,22 @@
         <v>1.392827</v>
       </c>
       <c r="O4">
-        <v>0.5486456655941866</v>
+        <v>0.5211722106246275</v>
       </c>
       <c r="P4">
-        <v>0.5486456655941866</v>
+        <v>0.5211722106246275</v>
       </c>
       <c r="Q4">
-        <v>0.6036625191745556</v>
+        <v>0.6036625191745555</v>
       </c>
       <c r="R4">
-        <v>5.432962672571001</v>
+        <v>5.432962672571</v>
       </c>
       <c r="S4">
-        <v>0.1861340759794622</v>
+        <v>0.1498215979163757</v>
       </c>
       <c r="T4">
-        <v>0.1861340759794622</v>
+        <v>0.1498215979163757</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>3.900673</v>
       </c>
       <c r="I5">
-        <v>0.3392609978571102</v>
+        <v>0.2874704269761693</v>
       </c>
       <c r="J5">
-        <v>0.3392609978571102</v>
+        <v>0.2874704269761693</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3819456666666667</v>
+        <v>0.426554</v>
       </c>
       <c r="N5">
-        <v>1.145837</v>
+        <v>1.279662</v>
       </c>
       <c r="O5">
-        <v>0.4513543344058135</v>
+        <v>0.4788277893753726</v>
       </c>
       <c r="P5">
-        <v>0.4513543344058135</v>
+        <v>0.4788277893753726</v>
       </c>
       <c r="Q5">
-        <v>0.4966150498112223</v>
+        <v>0.5546158902806667</v>
       </c>
       <c r="R5">
-        <v>4.469535448301</v>
+        <v>4.991543012526</v>
       </c>
       <c r="S5">
-        <v>0.1531269218776481</v>
+        <v>0.1376488290597936</v>
       </c>
       <c r="T5">
-        <v>0.1531269218776481</v>
+        <v>0.1376488290597936</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.256539666666666</v>
+        <v>2.600134333333333</v>
       </c>
       <c r="H6">
-        <v>6.769619</v>
+        <v>7.800402999999999</v>
       </c>
       <c r="I6">
-        <v>0.5887875494952928</v>
+        <v>0.5748713570699702</v>
       </c>
       <c r="J6">
-        <v>0.5887875494952928</v>
+        <v>0.5748713570699702</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,22 +809,22 @@
         <v>1.392827</v>
       </c>
       <c r="O6">
-        <v>0.5486456655941866</v>
+        <v>0.5211722106246275</v>
       </c>
       <c r="P6">
-        <v>0.5486456655941866</v>
+        <v>0.5211722106246275</v>
       </c>
       <c r="Q6">
-        <v>1.047656458101444</v>
+        <v>1.207179101031222</v>
       </c>
       <c r="R6">
-        <v>9.428908122913001</v>
+        <v>10.864611909281</v>
       </c>
       <c r="S6">
-        <v>0.323035736986415</v>
+        <v>0.2996069759889359</v>
       </c>
       <c r="T6">
-        <v>0.323035736986415</v>
+        <v>0.2996069759889359</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.256539666666666</v>
+        <v>2.600134333333333</v>
       </c>
       <c r="H7">
-        <v>6.769619</v>
+        <v>7.800402999999999</v>
       </c>
       <c r="I7">
-        <v>0.5887875494952928</v>
+        <v>0.5748713570699702</v>
       </c>
       <c r="J7">
-        <v>0.5887875494952928</v>
+        <v>0.5748713570699702</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3819456666666667</v>
+        <v>0.426554</v>
       </c>
       <c r="N7">
-        <v>1.145837</v>
+        <v>1.279662</v>
       </c>
       <c r="O7">
-        <v>0.4513543344058135</v>
+        <v>0.4788277893753726</v>
       </c>
       <c r="P7">
-        <v>0.4513543344058135</v>
+        <v>0.4788277893753726</v>
       </c>
       <c r="Q7">
-        <v>0.8618755473447777</v>
+        <v>1.109097700420667</v>
       </c>
       <c r="R7">
-        <v>7.756879926102999</v>
+        <v>9.981879303786</v>
       </c>
       <c r="S7">
-        <v>0.2657518125088778</v>
+        <v>0.2752643810810343</v>
       </c>
       <c r="T7">
-        <v>0.2657518125088778</v>
+        <v>0.2752643810810343</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.1462553333333333</v>
+        <v>0.1008076666666667</v>
       </c>
       <c r="H8">
-        <v>0.438766</v>
+        <v>0.302423</v>
       </c>
       <c r="I8">
-        <v>0.03816166876479336</v>
+        <v>0.02228786389872057</v>
       </c>
       <c r="J8">
-        <v>0.03816166876479336</v>
+        <v>0.02228786389872057</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,22 +933,22 @@
         <v>1.392827</v>
       </c>
       <c r="O8">
-        <v>0.5486456655941866</v>
+        <v>0.5211722106246275</v>
       </c>
       <c r="P8">
-        <v>0.5486456655941866</v>
+        <v>0.5211722106246275</v>
       </c>
       <c r="Q8">
-        <v>0.06790279238688889</v>
+        <v>0.04680254664677778</v>
       </c>
       <c r="R8">
-        <v>0.611125131482</v>
+        <v>0.421222919821</v>
       </c>
       <c r="S8">
-        <v>0.02093723415964493</v>
+        <v>0.01161581529819703</v>
       </c>
       <c r="T8">
-        <v>0.02093723415964493</v>
+        <v>0.01161581529819703</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.1462553333333333</v>
+        <v>0.1008076666666667</v>
       </c>
       <c r="H9">
-        <v>0.438766</v>
+        <v>0.302423</v>
       </c>
       <c r="I9">
-        <v>0.03816166876479336</v>
+        <v>0.02228786389872057</v>
       </c>
       <c r="J9">
-        <v>0.03816166876479336</v>
+        <v>0.02228786389872057</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3819456666666667</v>
+        <v>0.426554</v>
       </c>
       <c r="N9">
-        <v>1.145837</v>
+        <v>1.279662</v>
       </c>
       <c r="O9">
-        <v>0.4513543344058135</v>
+        <v>0.4788277893753726</v>
       </c>
       <c r="P9">
-        <v>0.4513543344058135</v>
+        <v>0.4788277893753726</v>
       </c>
       <c r="Q9">
-        <v>0.05586159079355555</v>
+        <v>0.04299991344733334</v>
       </c>
       <c r="R9">
-        <v>0.502754317142</v>
+        <v>0.386999221026</v>
       </c>
       <c r="S9">
-        <v>0.01722443460514843</v>
+        <v>0.01067204860052354</v>
       </c>
       <c r="T9">
-        <v>0.01722443460514843</v>
+        <v>0.01067204860052354</v>
       </c>
     </row>
   </sheetData>
